--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24234.82105009343</v>
+        <v>4822729.38896859</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24234.82105009343</v>
+        <v>4822729.38896859</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26954.21695465001</v>
+        <v>1811163.41151356</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26954.21695465001</v>
+        <v>1811163.41151356</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342007236.535313</v>
+        <v>53179661.0792812</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11566.55093305992</v>
+        <v>1203261.61948078</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22521.60697970431</v>
+        <v>2305216.5297718</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33476.66302634869</v>
+        <v>3407171.440062821</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46033.2776844004</v>
+        <v>4456976.586591574</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>58519.25315053288</v>
+        <v>5492724.533928407</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71005.22861666535</v>
+        <v>6528472.481265238</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83870.88973936348</v>
+        <v>7578277.627793984</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96840.96237917223</v>
+        <v>8620506.522311635</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109223.7310796126</v>
+        <v>9635716.323275719</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121291.111053649</v>
+        <v>10690006.38789726</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>132684.6194601505</v>
+        <v>11791961.29818828</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143714.4077188127</v>
+        <v>12879873.39528277</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154814.7628779601</v>
+        <v>13981828.3055738</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166342.8042842206</v>
+        <v>15047107.19567605</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178469.9537464468</v>
+        <v>15982753.29078697</v>
       </c>
     </row>
   </sheetData>
@@ -27037,22 +27037,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>223</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>223</v>
